--- a/Report_Folder/Report_1001xxxyyyzz.xlsx
+++ b/Report_Folder/Report_1001xxxyyyzz.xlsx
@@ -617,16 +617,16 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>6.571428571428571</v>
       </c>
       <c r="H31">
         <v>15</v>
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>100</v>
